--- a/00硬件/03格陆博/IBC CAN网络信号需求_20170428.xlsx
+++ b/00硬件/03格陆博/IBC CAN网络信号需求_20170428.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="24390" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19440" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1181,6 +1181,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1229,11 +1235,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1541,13 +1544,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1573,19 +1577,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -1647,7 +1651,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -1695,10 +1699,10 @@
       <c r="R3" s="3">
         <v>20</v>
       </c>
-      <c r="S3" s="27"/>
+      <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="18" t="s">
         <v>71</v>
       </c>
@@ -1729,7 +1733,7 @@
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M4" s="3">
@@ -1746,10 +1750,10 @@
       <c r="R4" s="3">
         <v>20</v>
       </c>
-      <c r="S4" s="28"/>
+      <c r="S4" s="30"/>
     </row>
     <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="20" t="s">
         <v>74</v>
       </c>
@@ -1797,10 +1801,10 @@
       <c r="R5" s="3">
         <v>20</v>
       </c>
-      <c r="S5" s="29"/>
+      <c r="S5" s="31"/>
     </row>
     <row r="6" spans="1:19" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -1853,7 +1857,7 @@
       <c r="S6" s="25"/>
     </row>
     <row r="7" spans="1:19" s="15" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="21" t="s">
         <v>83</v>
       </c>
@@ -1904,7 +1908,7 @@
       <c r="S7" s="25"/>
     </row>
     <row r="8" spans="1:19" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="21" t="s">
         <v>92</v>
       </c>
@@ -1914,13 +1918,13 @@
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="26">
         <v>8</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="44" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="4">
@@ -1935,7 +1939,7 @@
       <c r="K8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="27" t="s">
         <v>37</v>
       </c>
       <c r="M8" s="3">
@@ -1951,7 +1955,7 @@
       <c r="S8" s="25"/>
     </row>
     <row r="9" spans="1:19" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="21" t="s">
         <v>94</v>
       </c>
@@ -2002,7 +2006,7 @@
       <c r="S9" s="25"/>
     </row>
     <row r="10" spans="1:19" s="15" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="21" t="s">
         <v>38</v>
       </c>
@@ -2012,13 +2016,13 @@
       <c r="D10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="26">
         <v>8</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="44" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="4">
@@ -2033,7 +2037,7 @@
       <c r="K10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="27" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="3">
@@ -2051,7 +2055,7 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="21" t="s">
         <v>96</v>
       </c>
@@ -2102,7 +2106,7 @@
       <c r="S11" s="25"/>
     </row>
     <row r="12" spans="1:19" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="21" t="s">
         <v>99</v>
       </c>
@@ -2151,7 +2155,7 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" s="15" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="21" t="s">
         <v>103</v>
       </c>
@@ -2202,7 +2206,7 @@
       <c r="S13" s="25"/>
     </row>
     <row r="14" spans="1:19" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="21" t="s">
         <v>104</v>
       </c>
@@ -2251,7 +2255,7 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="21" t="s">
         <v>106</v>
       </c>
@@ -2302,7 +2306,7 @@
       <c r="S15" s="25"/>
     </row>
     <row r="16" spans="1:19" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="21" t="s">
         <v>110</v>
       </c>
@@ -2353,7 +2357,7 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="21" t="s">
         <v>108</v>
       </c>
@@ -2404,7 +2408,7 @@
       <c r="S17" s="25"/>
     </row>
     <row r="18" spans="1:19" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="21" t="s">
         <v>114</v>
       </c>
@@ -2455,7 +2459,7 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="21" t="s">
         <v>57</v>
       </c>
@@ -2504,7 +2508,7 @@
       <c r="S19" s="25"/>
     </row>
     <row r="20" spans="1:19" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="21" t="s">
         <v>119</v>
       </c>
@@ -2555,7 +2559,7 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -2603,12 +2607,12 @@
       <c r="R21" s="3">
         <v>20</v>
       </c>
-      <c r="S21" s="26" t="s">
+      <c r="S21" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="38"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="23" t="s">
         <v>66</v>
       </c>
@@ -2656,10 +2660,10 @@
       <c r="R22" s="3">
         <v>20</v>
       </c>
-      <c r="S22" s="26"/>
+      <c r="S22" s="28"/>
     </row>
     <row r="23" spans="1:19" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="38"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="23" t="s">
         <v>131</v>
       </c>
@@ -2705,10 +2709,10 @@
       <c r="R23" s="3">
         <v>20</v>
       </c>
-      <c r="S23" s="26"/>
+      <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="38"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="23" t="s">
         <v>132</v>
       </c>
@@ -2756,10 +2760,10 @@
       <c r="R24" s="3">
         <v>20</v>
       </c>
-      <c r="S24" s="26"/>
+      <c r="S24" s="28"/>
     </row>
     <row r="25" spans="1:19" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="38"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="23" t="s">
         <v>133</v>
       </c>
@@ -2805,10 +2809,10 @@
       <c r="R25" s="3">
         <v>20</v>
       </c>
-      <c r="S25" s="26"/>
+      <c r="S25" s="28"/>
     </row>
     <row r="26" spans="1:19" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="23" t="s">
         <v>75</v>
       </c>
@@ -2856,10 +2860,10 @@
       <c r="R26" s="3">
         <v>20</v>
       </c>
-      <c r="S26" s="26"/>
+      <c r="S26" s="28"/>
     </row>
     <row r="27" spans="1:19" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -2907,12 +2911,12 @@
       <c r="R27" s="3">
         <v>20</v>
       </c>
-      <c r="S27" s="26" t="s">
+      <c r="S27" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="15" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="41"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="16" t="s">
         <v>81</v>
       </c>
@@ -2960,7 +2964,7 @@
       <c r="R28" s="3">
         <v>20</v>
       </c>
-      <c r="S28" s="26"/>
+      <c r="S28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2986,6 +2990,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
